--- a/xlsx/中非共和國_intext.xlsx
+++ b/xlsx/中非共和國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中非共和國國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_中非共和國</t>
+    <t>体育运动_体育运动_伊朗_中非共和國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B%E5%9C%8B%E5%BE%BD</t>
